--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO.xlsx
@@ -683,9 +683,6 @@
     <t>Fósil de un dinosaurio con alas</t>
   </si>
   <si>
-    <t>Combinar las imágenes CN_09_01_CO_REC50_img07 y CN_09_01_CO_REC50_img08, mostrando las dos alas y un brazo humano. En el ala de murciélago deben aparecer los huesos. Una línea que une las dos alas tiene un texto que dice “analogía”, y otra une el ala de murciélago con la mano humana, y tiene el texto “homología”.</t>
-  </si>
-  <si>
     <t>Brazo humano y alas de insecto y murciélago</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>Mapa de extinciones de especies de vertebrados</t>
+  </si>
+  <si>
+    <t>Combinar las imágenes CN_09_04_CO_REC50_img07 y CN_09_04_CO_REC50_img08, mostrando las dos alas y un brazo humano. En el ala de murciélago deben aparecer los huesos. Una línea que une las dos alas tiene un texto que dice “analogía”, y otra une el ala de murciélago con la mano humana, y tiene el texto “homología”.</t>
   </si>
 </sst>
 </file>
@@ -2581,8 +2581,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3438,7 +3438,7 @@
         <v>IMG14</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3467,10 +3467,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
@@ -3512,7 +3512,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
@@ -3526,7 +3526,7 @@
         <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3555,7 +3555,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K25" s="64"/>
     </row>
@@ -3565,7 +3565,7 @@
         <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3594,7 +3594,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K26" s="64"/>
     </row>
